--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\Teaching\Spring 2020\CSC 591\Homeworks\HW3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\NC_State\Graduate School\Spring 2023\CSC591 - IoT\Homeworks\Homework 2\IoT-hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D45714-4499-4B35-A7A5-B3F3C768A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,9 +492,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -536,22 +536,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,40 +581,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,11 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,167 +892,183 @@
     <col min="14" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="22" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="5">
+        <v>4623459.3660000004</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17470.572</v>
+      </c>
+      <c r="D7" s="6">
+        <v>141065.92600000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>349456.18800000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10355.538</v>
+      </c>
+      <c r="G7" s="6">
+        <v>10136.509</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5128.3100000000004</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4180.0749999999998</v>
+      </c>
+      <c r="J7" s="14">
+        <v>579348967.96899998</v>
+      </c>
+      <c r="K7" s="6">
+        <v>10320383.302999999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2565.1999999999998</v>
+      </c>
+      <c r="M7" s="7">
+        <v>139.67699999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishabgu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\NC_State\Graduate School\Spring 2023\CSC591 - IoT\Homeworks\Homework 2\IoT-hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBB6D5-2470-4875-9876-6AA9DD57B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A355F-0C80-4321-A3D6-62F382B14786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="2085" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,98 +428,98 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,19 +839,19 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="17" width="9.08984375" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1.000002616238</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1.0000029038288101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1060,45 +1060,45 @@
         <v>1.0132000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="22">
-        <v>4623459.3660000004</v>
+        <v>566.24</v>
       </c>
       <c r="C7" s="23">
-        <v>17470.572</v>
+        <v>36.14</v>
       </c>
       <c r="D7" s="23">
-        <v>141065.92600000001</v>
+        <v>55946.98</v>
       </c>
       <c r="E7" s="23">
-        <v>349456.18800000002</v>
+        <v>3105.75</v>
       </c>
       <c r="F7" s="23">
-        <v>10355.538</v>
+        <v>47887.27</v>
       </c>
       <c r="G7" s="23">
-        <v>10136.509</v>
+        <v>5395.2</v>
       </c>
       <c r="H7" s="23">
-        <v>5128.3100000000004</v>
+        <v>1036.96</v>
       </c>
       <c r="I7" s="24">
-        <v>4180.0749999999998</v>
+        <v>4.67</v>
       </c>
       <c r="J7" s="25">
-        <v>579348967.96899998</v>
+        <v>3.0099900000000002</v>
       </c>
       <c r="K7" s="23">
-        <v>10320383.302999999</v>
+        <v>1.02725</v>
       </c>
       <c r="L7" s="23">
-        <v>2565.1999999999998</v>
+        <v>1.0081899999999999</v>
       </c>
       <c r="M7" s="24">
-        <v>139.67699999999999</v>
+        <v>1.0158</v>
       </c>
     </row>
   </sheetData>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\NC_State\Graduate School\Spring 2023\CSC591 - IoT\Homeworks\Homework 2\IoT-hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A355F-0C80-4321-A3D6-62F382B14786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB4A73-43F4-436A-A8CD-C85068284BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="2085" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2085" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,40 +1065,40 @@
         <v>11</v>
       </c>
       <c r="B7" s="22">
-        <v>566.24</v>
+        <v>57.23</v>
       </c>
       <c r="C7" s="23">
-        <v>36.14</v>
+        <v>10.1</v>
       </c>
       <c r="D7" s="23">
-        <v>55946.98</v>
+        <v>2791.76</v>
       </c>
       <c r="E7" s="23">
-        <v>3105.75</v>
+        <v>380.36</v>
       </c>
       <c r="F7" s="23">
-        <v>47887.27</v>
+        <v>56156.39</v>
       </c>
       <c r="G7" s="23">
-        <v>5395.2</v>
+        <v>9694.0499999999993</v>
       </c>
       <c r="H7" s="23">
-        <v>1036.96</v>
+        <v>67710.94</v>
       </c>
       <c r="I7" s="24">
-        <v>4.67</v>
+        <v>7408.72</v>
       </c>
       <c r="J7" s="25">
         <v>3.0099900000000002</v>
       </c>
       <c r="K7" s="23">
-        <v>1.02725</v>
+        <v>1.0198199999999999</v>
       </c>
       <c r="L7" s="23">
-        <v>1.0081899999999999</v>
+        <v>1.0002</v>
       </c>
       <c r="M7" s="24">
-        <v>1.0158</v>
+        <v>1.0000199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\NC_State\Graduate School\Spring 2023\CSC591 - IoT\Homeworks\Homework 2\IoT-hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB4A73-43F4-436A-A8CD-C85068284BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B848F0-677F-41FD-B456-D382210C51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2085" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>11232.82</v>
       </c>
       <c r="H5" s="18">
-        <v>43415.610999999997</v>
+        <v>43415.61</v>
       </c>
       <c r="I5" s="19">
         <v>10142.61</v>
